--- a/matrice de risques/analyse_de_risques.xlsx
+++ b/matrice de risques/analyse_de_risques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leode\OneDrive\Bureau\Pojet fil rouge\matrice de risques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B9A09-1CB2-43F0-9361-C7CEFA06FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89ED6A5-6236-491E-A74B-B64519DFEB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -426,19 +426,6 @@
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -597,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -644,7 +631,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,10 +643,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,16 +655,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,25 +667,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,6 +687,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,7 +977,7 @@
   <dimension ref="A1:AA985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="B2" sqref="B2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1075,7 @@
     </row>
     <row r="3" spans="1:27" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="21">
@@ -1121,7 +1102,7 @@
       <c r="J3" s="10">
         <v>5</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="10" t="s">
         <v>61</v>
       </c>
@@ -1146,7 +1127,7 @@
     </row>
     <row r="4" spans="1:27" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="22">
         <v>2</v>
       </c>
@@ -1171,7 +1152,7 @@
       <c r="J4" s="12">
         <v>4</v>
       </c>
-      <c r="K4" s="38"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="12" t="s">
         <v>67</v>
       </c>
@@ -1196,7 +1177,7 @@
     </row>
     <row r="5" spans="1:27" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="21">
@@ -1223,7 +1204,7 @@
       <c r="J5" s="10">
         <v>5</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1229,7 @@
     </row>
     <row r="6" spans="1:27" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="23">
         <v>4</v>
       </c>
@@ -1273,7 +1254,7 @@
       <c r="J6" s="6">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="6" t="s">
         <v>36</v>
       </c>
@@ -1298,7 +1279,7 @@
     </row>
     <row r="7" spans="1:27" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3">
@@ -1325,7 +1306,7 @@
       <c r="J7" s="14">
         <v>5</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="14" t="s">
         <v>28</v>
       </c>
@@ -1350,39 +1331,39 @@
     </row>
     <row r="8" spans="1:27" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="30">
+      <c r="B8" s="36"/>
+      <c r="C8" s="28">
         <v>6</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="30">
         <v>2</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="30">
         <v>3</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="32" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="30" t="s">
         <v>46</v>
       </c>
       <c r="O8" s="5"/>
@@ -1427,7 +1408,7 @@
       <c r="J9" s="10">
         <v>4</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="10" t="s">
         <v>52</v>
       </c>
@@ -1479,7 +1460,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
